--- a/dictionaries/settlement/cod_spelling_dictionary.xlsx
+++ b/dictionaries/settlement/cod_spelling_dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="83">
   <si>
     <t>name</t>
   </si>
@@ -216,9 +216,6 @@
   </si>
   <si>
     <t xml:space="preserve"> vlq</t>
-  </si>
-  <si>
-    <t>FRENCH</t>
   </si>
   <si>
     <t>Campment</t>
@@ -603,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:A71"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A54" sqref="A2:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +619,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -633,7 +630,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -644,7 +641,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -655,7 +652,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -666,7 +663,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -677,7 +674,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -688,7 +685,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -699,7 +696,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -710,7 +707,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -721,7 +718,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -732,7 +729,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -743,7 +740,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -754,7 +751,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -765,7 +762,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -776,7 +773,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -787,7 +784,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -798,7 +795,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -809,7 +806,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -820,7 +817,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -831,7 +828,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -842,7 +839,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -853,7 +850,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -864,7 +861,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -875,7 +872,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -886,7 +883,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -897,7 +894,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -908,7 +905,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -919,7 +916,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -930,7 +927,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -941,7 +938,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -952,7 +949,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -963,7 +960,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -974,7 +971,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -985,7 +982,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -996,7 +993,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -1007,7 +1004,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -1018,7 +1015,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1029,7 +1026,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -1040,7 +1037,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -1051,7 +1048,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -1062,7 +1059,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -1073,7 +1070,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -1084,7 +1081,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -1095,7 +1092,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -1106,7 +1103,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -1117,7 +1114,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -1128,7 +1125,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -1139,7 +1136,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -1150,7 +1147,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -1161,7 +1158,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -1172,7 +1169,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -1183,7 +1180,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -1194,7 +1191,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -1205,7 +1202,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -1216,7 +1213,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -1227,7 +1224,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -1238,7 +1235,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -1249,7 +1246,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -1260,7 +1257,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -1271,7 +1268,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -1282,112 +1279,112 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" t="s">
         <v>65</v>
-      </c>
-      <c r="C62" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" t="s">
         <v>67</v>
-      </c>
-      <c r="C63" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" t="s">
         <v>69</v>
-      </c>
-      <c r="C64" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" t="s">
         <v>72</v>
-      </c>
-      <c r="C66" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" t="s">
         <v>74</v>
-      </c>
-      <c r="C67" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" t="s">
         <v>76</v>
-      </c>
-      <c r="C68" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" t="s">
         <v>79</v>
-      </c>
-      <c r="C70" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" t="s">
         <v>81</v>
-      </c>
-      <c r="C71" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
